--- a/draw/data/all_f1.xlsx
+++ b/draw/data/all_f1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujinyang/Codes/TS-anomaly/notebooks/ase_figures/tmp_draw_salience_f1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujinyang/Codes/TS-anomaly/draw/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF97DD2-6286-5843-BEB7-83EDA3C10FEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503872FC-F2AD-A44F-B46D-69C7CB301A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="2800" windowWidth="27240" windowHeight="15320" xr2:uid="{D9FDDE35-D9A5-4A4A-9DD5-74F5DD6FB243}"/>
+    <workbookView xWindow="2700" yWindow="4060" windowWidth="28800" windowHeight="16320" xr2:uid="{D9FDDE35-D9A5-4A4A-9DD5-74F5DD6FB243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,15 +120,21 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <u/>
+      <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -236,61 +242,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,287 +621,287 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickTop="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="19" thickTop="1">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.77602599999999999</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.86230300000000004</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.86482000000000003</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.52297700000000003</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.80694699999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="9">
+        <v>0.77995070331480509</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.62162901818345573</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.687610913609077</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.29347143293932959</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.80619390260903123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11">
-        <v>0.85394700000000001</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.74007500000000004</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.85385699999999998</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.66466999999999998</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.84820600000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="10">
+        <v>0.60681531976754111</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.47232477303313047</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.46472326233939398</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.42696629213483139</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.83087843454905896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11">
-        <v>0.883494</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.80753699999999995</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.88436199999999998</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.58085200000000003</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.82905099999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="10">
+        <v>0.70039102086224392</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.55356289149452476</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.50605123510579297</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.36349206349206348</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.81700602144536161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.77602599999999999</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.80947199999999997</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.86482000000000003</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.52297700000000003</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.82025800000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="10">
+        <v>0.60352563422238659</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.58904258148923805</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.65933664878321496</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.29419086052464188</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.78902833029297337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11">
-        <v>0.86108300000000004</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.74224000000000001</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.88151800000000002</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.68660900000000002</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.85208200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="10">
+        <v>0.72183353436206421</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.56289361058430298</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.54893263821218297</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.32790685462058761</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.8168259636592794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
-        <v>0.86095200000000005</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.84570500000000004</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.87292199999999998</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.68288199999999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.8498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="10">
+        <v>0.71878401521048774</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.62432582579473672</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.52005408393846098</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.34019967535295409</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.8167058724691254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.95342000000000005</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.85777300000000001</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.89449299999999998</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.95565999999999995</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.96478299999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="10">
+        <v>0.74131335205149795</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.55483831151065166</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.50570595740721402</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.17807983638157121</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.95765567497968174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11">
-        <v>0.80693099999999995</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.76822500000000005</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.928427</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.68183000000000005</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.85013899999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="10">
+        <v>0.62944784360580586</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.49684251999660101</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.58094348025571396</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.37021707732436571</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.85013908205841449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11">
-        <v>0.901725</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.78393800000000002</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.90852100000000002</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.37550800000000001</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.90435100000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="10">
+        <v>0.63898352834073324</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.51271528385418974</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.52724067087030202</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.25811667944518019</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.85794844253490865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
-        <v>0.49655300000000002</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.67504500000000001</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.79443399999999997</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.78754400000000002</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.81587399999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="10">
+        <v>0.33006167442584722</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.46688817943740679</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.59394075143029901</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.55373992592335253</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.64665487400313282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11">
-        <v>0.71931400000000001</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.60065800000000003</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.74134299999999997</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0.84647399999999995</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.87280599999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="10">
+        <v>0.5961946694382757</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.42792609715738827</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.544441183176262</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.43488199240686343</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.25924326274122661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="16">
-        <v>0.93110800000000005</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.72356900000000002</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.91174599999999995</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.46897699999999998</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.86433700000000002</v>
+      <c r="B14" s="11">
+        <v>0.78940132031821086</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.59391593692437872</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.63527655985332798</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.1662214438520456</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.81595800978475685</v>
       </c>
     </row>
   </sheetData>
